--- a/Provresultat.xlsx
+++ b/Provresultat.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>Län</t>
   </si>
@@ -227,6 +227,45 @@
     <t>Ängsholmsbadet</t>
   </si>
   <si>
+    <t>Värmland</t>
+  </si>
+  <si>
+    <t>Årjäng</t>
+  </si>
+  <si>
+    <t>Västra Silen, Badbarna</t>
+  </si>
+  <si>
+    <t>Mulet</t>
+  </si>
+  <si>
+    <t>Foxen, Västra Fågelvik</t>
+  </si>
+  <si>
+    <t>Östra Silen, Signebyn</t>
+  </si>
+  <si>
+    <t>Blomma, Lelång</t>
+  </si>
+  <si>
+    <t>Forstjärn, Lennartsfors</t>
+  </si>
+  <si>
+    <t>Silvergruvan, Töck</t>
+  </si>
+  <si>
+    <t>Holmedalssjön</t>
+  </si>
+  <si>
+    <t>Högsjön</t>
+  </si>
+  <si>
+    <t>Östen, Björkenäset</t>
+  </si>
+  <si>
+    <t>Vattendrag</t>
+  </si>
+  <si>
     <t>Örebro</t>
   </si>
   <si>
@@ -254,9 +293,6 @@
     <t>Stångån Hjulsbro</t>
   </si>
   <si>
-    <t>Vattendrag</t>
-  </si>
-  <si>
     <t>Stångån Johannelund</t>
   </si>
   <si>
@@ -276,9 +312,6 @@
   </si>
   <si>
     <t>Skogsjön</t>
-  </si>
-  <si>
-    <t>Mulet</t>
   </si>
   <si>
     <t>Månsjön</t>
@@ -306,7 +339,7 @@
     </r>
   </si>
   <si>
-    <t>Datum: 2022-05-23</t>
+    <t>Datum: 2022-05-24</t>
   </si>
 </sst>
 </file>
@@ -863,7 +896,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -871,13 +904,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.815714" customWidth="1"/>
-    <col min="2" max="2" width="21.208096" customWidth="1"/>
-    <col min="3" max="3" width="20.628284" customWidth="1"/>
-    <col min="4" max="4" width="15.884666" customWidth="1"/>
+    <col min="1" max="1" width="16.847713" customWidth="1"/>
+    <col min="2" max="2" width="21.240095" customWidth="1"/>
+    <col min="3" max="3" width="20.660284" customWidth="1"/>
+    <col min="4" max="4" width="15.916666" customWidth="1"/>
     <col min="5" max="5" width="15.24514" customWidth="1"/>
     <col min="6" max="6" width="4.963809" customWidth="1"/>
-    <col min="7" max="7" width="3.5238094" customWidth="1"/>
+    <col min="7" max="7" width="3.7798083" customWidth="1"/>
     <col min="8" max="9" width="10.807617" customWidth="1"/>
     <col min="10" max="10" width="7.843808" customWidth="1"/>
     <col min="11" max="11" width="6.7420945" customWidth="1"/>
@@ -2371,23 +2404,23 @@
       </c>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="32" t="s">
         <v>66</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>67</v>
       </c>
       <c r="D34" s="7">
-        <v>44685.0</v>
+        <v>44700.0</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G34" s="9">
         <v>1.0</v>
@@ -2399,131 +2432,127 @@
         <v>10.0</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>23</v>
       </c>
       <c r="L34" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M34" s="10">
+        <v>12.3</v>
+      </c>
+      <c r="N34" s="11">
+        <v>59.3521880972014</v>
+      </c>
+      <c r="O34" s="11">
+        <v>12.1124355469754</v>
+      </c>
+      <c r="P34" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="14">
+        <v>44700.0</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="17">
+        <v>10.0</v>
+      </c>
+      <c r="J35" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="M34" s="10">
-        <v>9.0</v>
-      </c>
-      <c r="N34" s="11">
-        <v>59.1084949896243</v>
-      </c>
-      <c r="O34" s="11">
-        <v>15.2310384172569</v>
-      </c>
-      <c r="P34" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
-      <c r="A35" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="29" t="s">
+      <c r="K35" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L35" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M35" s="18">
+        <v>11.5</v>
+      </c>
+      <c r="N35" s="19">
+        <v>59.4497138613599</v>
+      </c>
+      <c r="O35" s="19">
+        <v>11.8529528262617</v>
+      </c>
+      <c r="P35" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="D36" s="7">
+        <v>44700.0</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="9">
+        <v>37.0</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="9">
+        <v>10.0</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M36" s="10">
+        <v>14.9</v>
+      </c>
+      <c r="N36" s="11">
+        <v>59.2786956758764</v>
+      </c>
+      <c r="O36" s="11">
+        <v>12.2977362702693</v>
+      </c>
+      <c r="P36" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="14">
-        <v>44698.0</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" s="17">
-        <v>6.0</v>
-      </c>
-      <c r="H35" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" s="17">
-        <v>10.0</v>
-      </c>
-      <c r="J35" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="K35" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L35" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="M35" s="18">
-        <v>14.5</v>
-      </c>
-      <c r="N35" s="19">
-        <v>58.4868083391097</v>
-      </c>
-      <c r="O35" s="19">
-        <v>15.5408333143404</v>
-      </c>
-      <c r="P35" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
-      <c r="A36" s="30"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="7">
-        <v>44698.0</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" s="9">
-        <v>10.0</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M36" s="10">
-        <v>14.3</v>
-      </c>
-      <c r="N36" s="11">
-        <v>58.5388177818539</v>
-      </c>
-      <c r="O36" s="11">
-        <v>15.6208372390246</v>
-      </c>
-      <c r="P36" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16">
-      <c r="A37" s="30"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="13" t="s">
-        <v>73</v>
-      </c>
       <c r="D37" s="14">
-        <v>44698.0</v>
+        <v>44700.0</v>
       </c>
       <c r="E37" s="15" t="s">
         <v>19</v>
@@ -2541,7 +2570,7 @@
         <v>10.0</v>
       </c>
       <c r="J37" s="15" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="K37" s="15" t="s">
         <v>23</v>
@@ -2550,304 +2579,310 @@
         <v>24</v>
       </c>
       <c r="M37" s="18">
-        <v>13.7</v>
+        <v>14.0</v>
       </c>
       <c r="N37" s="19">
-        <v>58.3744714476893</v>
+        <v>59.2548132115065</v>
       </c>
       <c r="O37" s="19">
-        <v>15.7139489634733</v>
+        <v>11.9615635764278</v>
       </c>
       <c r="P37" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="7">
+        <v>44700.0</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="9">
+        <v>10.0</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M38" s="10">
+        <v>11.8</v>
+      </c>
+      <c r="N38" s="11">
+        <v>59.3202613427227</v>
+      </c>
+      <c r="O38" s="11">
+        <v>11.8961467996111</v>
+      </c>
+      <c r="P38" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="14">
+        <v>44700.0</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="H39" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="17">
+        <v>10.0</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M39" s="18">
+        <v>14.0</v>
+      </c>
+      <c r="N39" s="19">
+        <v>59.5068841293635</v>
+      </c>
+      <c r="O39" s="19">
+        <v>11.8268097243625</v>
+      </c>
+      <c r="P39" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="33"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="6" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="38" spans="1:16">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="6" t="s">
+      <c r="D40" s="7">
+        <v>44700.0</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="9">
+        <v>10.0</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M40" s="10">
+        <v>14.4</v>
+      </c>
+      <c r="N40" s="11">
+        <v>59.4654854288921</v>
+      </c>
+      <c r="O40" s="11">
+        <v>11.959699730199</v>
+      </c>
+      <c r="P40" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="33"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D41" s="14">
+        <v>44700.0</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="H41" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="17">
+        <v>10.0</v>
+      </c>
+      <c r="J41" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="K41" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L41" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M41" s="18">
+        <v>12.8</v>
+      </c>
+      <c r="N41" s="19">
+        <v>59.5455925716962</v>
+      </c>
+      <c r="O41" s="19">
+        <v>12.0257765387326</v>
+      </c>
+      <c r="P41" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="34"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="7">
+        <v>44700.0</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" s="9">
+        <v>152.0</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" s="9">
+        <v>20.0</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M42" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="N42" s="11">
+        <v>59.6464506045917</v>
+      </c>
+      <c r="O42" s="11">
+        <v>11.8954841556145</v>
+      </c>
+      <c r="P42" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="14">
+        <v>44685.0</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="H43" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="17">
+        <v>10.0</v>
+      </c>
+      <c r="J43" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K43" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L43" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="M43" s="18">
+        <v>9.0</v>
+      </c>
+      <c r="N43" s="19">
+        <v>59.1084949896243</v>
+      </c>
+      <c r="O43" s="19">
+        <v>15.2310384172569</v>
+      </c>
+      <c r="P43" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="7">
         <v>44698.0</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I38" s="9">
-        <v>20.0</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L38" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M38" s="10">
-        <v>13.0</v>
-      </c>
-      <c r="N38" s="11">
-        <v>58.3983617563345</v>
-      </c>
-      <c r="O38" s="11">
-        <v>15.6623526743628</v>
-      </c>
-      <c r="P38" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" s="14">
-        <v>44698.0</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="H39" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I39" s="17">
-        <v>10.0</v>
-      </c>
-      <c r="J39" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="K39" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L39" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="M39" s="18">
-        <v>13.0</v>
-      </c>
-      <c r="N39" s="19">
-        <v>58.3242330526836</v>
-      </c>
-      <c r="O39" s="19">
-        <v>15.7256212267365</v>
-      </c>
-      <c r="P39" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D40" s="7">
-        <v>44698.0</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" s="9">
-        <v>3.0</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I40" s="9">
-        <v>10.0</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M40" s="10">
-        <v>13.8</v>
-      </c>
-      <c r="N40" s="11">
-        <v>58.4505706749787</v>
-      </c>
-      <c r="O40" s="11">
-        <v>15.4862539151254</v>
-      </c>
-      <c r="P40" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D41" s="14">
-        <v>44698.0</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F41" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="H41" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I41" s="17">
-        <v>10.0</v>
-      </c>
-      <c r="J41" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="K41" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L41" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="M41" s="18">
-        <v>13.0</v>
-      </c>
-      <c r="N41" s="19">
-        <v>58.3983629057276</v>
-      </c>
-      <c r="O41" s="19">
-        <v>15.6621302819285</v>
-      </c>
-      <c r="P41" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16">
-      <c r="A42" s="30"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D42" s="7">
-        <v>44698.0</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I42" s="9">
-        <v>10.0</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L42" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M42" s="10">
-        <v>13.5</v>
-      </c>
-      <c r="N42" s="11">
-        <v>58.3879713477227</v>
-      </c>
-      <c r="O42" s="11">
-        <v>15.6909776950517</v>
-      </c>
-      <c r="P42" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16">
-      <c r="A43" s="30"/>
-      <c r="B43" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D43" s="14">
-        <v>44697.0</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F43" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="H43" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I43" s="17">
-        <v>10.0</v>
-      </c>
-      <c r="J43" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="K43" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L43" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="M43" s="18">
-        <v>11.0</v>
-      </c>
-      <c r="N43" s="19">
-        <v>58.3451509710736</v>
-      </c>
-      <c r="O43" s="19">
-        <v>15.118740383246</v>
-      </c>
-      <c r="P43" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16">
-      <c r="A44" s="30"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D44" s="7">
-        <v>44697.0</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>19</v>
@@ -2862,90 +2897,506 @@
         <v>20</v>
       </c>
       <c r="I44" s="9">
+        <v>10.0</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M44" s="10">
+        <v>14.5</v>
+      </c>
+      <c r="N44" s="11">
+        <v>58.4868083391097</v>
+      </c>
+      <c r="O44" s="11">
+        <v>15.5408333143404</v>
+      </c>
+      <c r="P44" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="14">
+        <v>44698.0</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="H45" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" s="17">
+        <v>10.0</v>
+      </c>
+      <c r="J45" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K45" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L45" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M45" s="18">
+        <v>14.3</v>
+      </c>
+      <c r="N45" s="19">
+        <v>58.5388177818539</v>
+      </c>
+      <c r="O45" s="19">
+        <v>15.6208372390246</v>
+      </c>
+      <c r="P45" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="33"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="7">
+        <v>44698.0</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" s="9">
+        <v>10.0</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M46" s="10">
+        <v>13.7</v>
+      </c>
+      <c r="N46" s="11">
+        <v>58.3744714476893</v>
+      </c>
+      <c r="O46" s="11">
+        <v>15.7139489634733</v>
+      </c>
+      <c r="P46" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" s="33"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" s="14">
+        <v>44698.0</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G47" s="17">
+        <v>5.0</v>
+      </c>
+      <c r="H47" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I47" s="17">
+        <v>20.0</v>
+      </c>
+      <c r="J47" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K47" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L47" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M47" s="18">
+        <v>13.0</v>
+      </c>
+      <c r="N47" s="19">
+        <v>58.3983617563345</v>
+      </c>
+      <c r="O47" s="19">
+        <v>15.6623526743628</v>
+      </c>
+      <c r="P47" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" s="33"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" s="7">
+        <v>44698.0</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G48" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" s="9">
+        <v>10.0</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M48" s="10">
+        <v>13.0</v>
+      </c>
+      <c r="N48" s="11">
+        <v>58.3242330526836</v>
+      </c>
+      <c r="O48" s="11">
+        <v>15.7256212267365</v>
+      </c>
+      <c r="P48" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="14">
+        <v>44698.0</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="H49" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" s="17">
+        <v>10.0</v>
+      </c>
+      <c r="J49" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K49" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L49" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M49" s="18">
+        <v>13.8</v>
+      </c>
+      <c r="N49" s="19">
+        <v>58.4505706749787</v>
+      </c>
+      <c r="O49" s="19">
+        <v>15.4862539151254</v>
+      </c>
+      <c r="P49" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" s="33"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" s="7">
+        <v>44698.0</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" s="9">
+        <v>10.0</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M50" s="10">
+        <v>13.0</v>
+      </c>
+      <c r="N50" s="11">
+        <v>58.3983629057276</v>
+      </c>
+      <c r="O50" s="11">
+        <v>15.6621302819285</v>
+      </c>
+      <c r="P50" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" s="33"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" s="14">
+        <v>44698.0</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="H51" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I51" s="17">
+        <v>10.0</v>
+      </c>
+      <c r="J51" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="K51" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L51" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M51" s="18">
+        <v>13.5</v>
+      </c>
+      <c r="N51" s="19">
+        <v>58.3879713477227</v>
+      </c>
+      <c r="O51" s="19">
+        <v>15.6909776950517</v>
+      </c>
+      <c r="P51" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" s="33"/>
+      <c r="B52" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D52" s="7">
+        <v>44697.0</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" s="9">
+        <v>10.0</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M52" s="10">
+        <v>11.0</v>
+      </c>
+      <c r="N52" s="11">
+        <v>58.3451509710736</v>
+      </c>
+      <c r="O52" s="11">
+        <v>15.118740383246</v>
+      </c>
+      <c r="P52" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" s="33"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53" s="14">
+        <v>44697.0</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G53" s="17">
+        <v>6.0</v>
+      </c>
+      <c r="H53" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" s="17">
         <v>50.0</v>
       </c>
-      <c r="J44" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="K44" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L44" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M44" s="10">
+      <c r="J53" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="K53" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L53" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M53" s="18">
         <v>12.0</v>
       </c>
-      <c r="N44" s="11">
+      <c r="N53" s="19">
         <v>58.3960550007603</v>
       </c>
-      <c r="O44" s="11">
+      <c r="O53" s="19">
         <v>15.0698674711342</v>
       </c>
-      <c r="P44" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16">
-      <c r="A45" s="31"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D45" s="14">
+      <c r="P53" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" s="34"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" s="7">
         <v>44697.0</v>
       </c>
-      <c r="E45" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F45" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" s="17">
+      <c r="E54" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" s="9">
         <v>3.0</v>
       </c>
-      <c r="H45" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I45" s="17">
-        <v>10.0</v>
-      </c>
-      <c r="J45" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="K45" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L45" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="M45" s="18">
+      <c r="H54" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54" s="9">
+        <v>10.0</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L54" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M54" s="10">
         <v>11.0</v>
       </c>
-      <c r="N45" s="19">
+      <c r="N54" s="11">
         <v>58.4355639150184</v>
       </c>
-      <c r="O45" s="19">
+      <c r="O54" s="11">
         <v>15.2488009380336</v>
       </c>
-      <c r="P45" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="21" t="s"/>
-    </row>
-    <row r="47" spans="1:5" ht="21.248" customHeight="1">
-      <c r="A47" s="22"/>
-      <c r="B47" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="E47" s="24" t="s">
-        <v>86</v>
+      <c r="P54" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="21" t="s"/>
+    </row>
+    <row r="56" spans="1:5" ht="21.248" customHeight="1">
+      <c r="A56" s="22"/>
+      <c r="B56" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E56" s="24" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="29">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
@@ -2970,9 +3421,11 @@
     <mergeCell ref="A21:A33"/>
     <mergeCell ref="B21:B28"/>
     <mergeCell ref="B29:B33"/>
-    <mergeCell ref="A35:A45"/>
-    <mergeCell ref="B35:B42"/>
-    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="A34:A42"/>
+    <mergeCell ref="B34:B42"/>
+    <mergeCell ref="A44:A54"/>
+    <mergeCell ref="B44:B51"/>
+    <mergeCell ref="B52:B54"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C38" r:id="rId1"/>
@@ -2991,32 +3444,41 @@
     <hyperlink ref="C25" r:id="rId14"/>
     <hyperlink ref="C24" r:id="rId15"/>
     <hyperlink ref="C23" r:id="rId16"/>
-    <hyperlink ref="C22" r:id="rId17"/>
-    <hyperlink ref="C21" r:id="rId18"/>
-    <hyperlink ref="C20" r:id="rId19"/>
-    <hyperlink ref="C9" r:id="rId20"/>
-    <hyperlink ref="C8" r:id="rId21"/>
-    <hyperlink ref="C7" r:id="rId22"/>
-    <hyperlink ref="C6" r:id="rId23"/>
-    <hyperlink ref="C5" r:id="rId24"/>
-    <hyperlink ref="C4" r:id="rId25"/>
-    <hyperlink ref="C19" r:id="rId26"/>
-    <hyperlink ref="C18" r:id="rId27"/>
-    <hyperlink ref="C17" r:id="rId28"/>
-    <hyperlink ref="C16" r:id="rId29"/>
-    <hyperlink ref="C15" r:id="rId30"/>
-    <hyperlink ref="C14" r:id="rId31"/>
-    <hyperlink ref="C45" r:id="rId32"/>
-    <hyperlink ref="C13" r:id="rId33"/>
-    <hyperlink ref="C44" r:id="rId34"/>
-    <hyperlink ref="C12" r:id="rId35"/>
-    <hyperlink ref="C43" r:id="rId36"/>
-    <hyperlink ref="C11" r:id="rId37"/>
-    <hyperlink ref="C42" r:id="rId38"/>
-    <hyperlink ref="C10" r:id="rId39"/>
-    <hyperlink ref="C41" r:id="rId40"/>
-    <hyperlink ref="C40" r:id="rId41"/>
-    <hyperlink ref="C39" r:id="rId42"/>
+    <hyperlink ref="C54" r:id="rId17"/>
+    <hyperlink ref="C22" r:id="rId18"/>
+    <hyperlink ref="C53" r:id="rId19"/>
+    <hyperlink ref="C21" r:id="rId20"/>
+    <hyperlink ref="C52" r:id="rId21"/>
+    <hyperlink ref="C20" r:id="rId22"/>
+    <hyperlink ref="C51" r:id="rId23"/>
+    <hyperlink ref="C50" r:id="rId24"/>
+    <hyperlink ref="C9" r:id="rId25"/>
+    <hyperlink ref="C8" r:id="rId26"/>
+    <hyperlink ref="C7" r:id="rId27"/>
+    <hyperlink ref="C6" r:id="rId28"/>
+    <hyperlink ref="C5" r:id="rId29"/>
+    <hyperlink ref="C4" r:id="rId30"/>
+    <hyperlink ref="C19" r:id="rId31"/>
+    <hyperlink ref="C18" r:id="rId32"/>
+    <hyperlink ref="C49" r:id="rId33"/>
+    <hyperlink ref="C17" r:id="rId34"/>
+    <hyperlink ref="C48" r:id="rId35"/>
+    <hyperlink ref="C16" r:id="rId36"/>
+    <hyperlink ref="C47" r:id="rId37"/>
+    <hyperlink ref="C15" r:id="rId38"/>
+    <hyperlink ref="C46" r:id="rId39"/>
+    <hyperlink ref="C14" r:id="rId40"/>
+    <hyperlink ref="C45" r:id="rId41"/>
+    <hyperlink ref="C13" r:id="rId42"/>
+    <hyperlink ref="C44" r:id="rId43"/>
+    <hyperlink ref="C12" r:id="rId44"/>
+    <hyperlink ref="C43" r:id="rId45"/>
+    <hyperlink ref="C11" r:id="rId46"/>
+    <hyperlink ref="C42" r:id="rId47"/>
+    <hyperlink ref="C10" r:id="rId48"/>
+    <hyperlink ref="C41" r:id="rId49"/>
+    <hyperlink ref="C40" r:id="rId50"/>
+    <hyperlink ref="C39" r:id="rId51"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
